--- a/static/Grupos_paises.xlsx
+++ b/static/Grupos_paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34671\Documents\TFG\APP\PLOTLY\Dashboards\version5\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88857BA-454D-4739-A5E6-DCAAEA55D3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791956A1-0419-4FCB-B309-66BB70513D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2720,10 +2720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ234"/>
+  <dimension ref="A1:AJ231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AJ8" sqref="AJ8"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="C238" sqref="C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -10163,9 +10163,6 @@
       <c r="AI231" s="35" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="234" spans="2:36">
-      <c r="AG234" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
